--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/99/word_level_predictions_99.xlsx
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14253,395 +14253,395 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Missed_I-Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>9</v>
-      </c>
-      <c r="E269" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>10</v>
-      </c>
-      <c r="E270" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
+      <c r="F272" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>11</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>20</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F273" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17298,208 +17298,208 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>26</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>8</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>26</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>9</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" t="n">
         <v>26</v>
       </c>
-      <c r="B327" s="2" t="inlineStr">
+      <c r="B327" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" s="2" t="n">
+      <c r="D327" t="n">
         <v>10</v>
       </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" t="n">
         <v>26</v>
       </c>
-      <c r="B328" s="2" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" s="2" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" s="2" t="n">
+      <c r="D328" t="n">
         <v>11</v>
       </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
+      <c r="F328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B483" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C483" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" t="n">
+      <c r="D483" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E483" t="inlineStr">
+      <c r="E483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" t="inlineStr">
+      <c r="F483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" t="b">
-        <v>1</v>
-      </c>
-      <c r="J483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K483" t="b">
-        <v>1</v>
-      </c>
-      <c r="L483" t="inlineStr">
+      <c r="G483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="n">
+      <c r="A484" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B484" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
+      <c r="C484" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E484" t="inlineStr">
+      <c r="E484" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G484" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" t="b">
-        <v>1</v>
-      </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/99/word_level_predictions_99.xlsx
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14253,395 +14253,395 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>20</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>20</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>20</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>20</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>20</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>11</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>20</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>20</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>13</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D267" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
-        <is>
-          <t>Missed_I-Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D269" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D270" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B271" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D271" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E271" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B272" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C272" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D273" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17298,208 +17298,208 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
+      <c r="F328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>40</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
+      <c r="D483" t="n">
         <v>3</v>
       </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="E483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
+      <c r="F483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>40</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
+      <c r="D484" t="n">
         <v>4</v>
       </c>
-      <c r="E484" s="2" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
